--- a/data/pca/factorExposure/factorExposure_2015-10-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02292335184538336</v>
+        <v>0.02019932661997799</v>
       </c>
       <c r="C2">
-        <v>0.03067116679153836</v>
+        <v>0.03967404931159924</v>
       </c>
       <c r="D2">
-        <v>-0.1170193370999231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.127350342380994</v>
+      </c>
+      <c r="E2">
+        <v>0.03657745254206165</v>
+      </c>
+      <c r="F2">
+        <v>0.03130896950208721</v>
+      </c>
+      <c r="G2">
+        <v>-0.08319700246058545</v>
+      </c>
+      <c r="H2">
+        <v>0.08146515515158034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01352621975681284</v>
+        <v>0.007998441776645344</v>
       </c>
       <c r="C3">
-        <v>0.04511745859635286</v>
+        <v>0.03688835648640968</v>
       </c>
       <c r="D3">
-        <v>-0.07920660658915346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05457744195765089</v>
+      </c>
+      <c r="E3">
+        <v>0.05680158698547241</v>
+      </c>
+      <c r="F3">
+        <v>0.04721375330571565</v>
+      </c>
+      <c r="G3">
+        <v>-0.1241556381185027</v>
+      </c>
+      <c r="H3">
+        <v>0.09281511304063118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04812733556930863</v>
+        <v>0.0458642721472583</v>
       </c>
       <c r="C4">
-        <v>0.06250846226679103</v>
+        <v>0.07676198997583507</v>
       </c>
       <c r="D4">
-        <v>-0.1282607662601879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1488797466678747</v>
+      </c>
+      <c r="E4">
+        <v>0.05578719976374634</v>
+      </c>
+      <c r="F4">
+        <v>0.05297920409977464</v>
+      </c>
+      <c r="G4">
+        <v>0.04018743012730782</v>
+      </c>
+      <c r="H4">
+        <v>0.01655521329674495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03529547846173095</v>
+        <v>0.03686038401287665</v>
       </c>
       <c r="C6">
-        <v>0.02342377902927401</v>
+        <v>0.03115836404022565</v>
       </c>
       <c r="D6">
-        <v>-0.1547211385238476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1422100666115879</v>
+      </c>
+      <c r="E6">
+        <v>0.007045710797623611</v>
+      </c>
+      <c r="F6">
+        <v>0.04020823825356323</v>
+      </c>
+      <c r="G6">
+        <v>-0.0004002377009825348</v>
+      </c>
+      <c r="H6">
+        <v>0.05632828142988053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0226621579422255</v>
+        <v>0.01786386557562892</v>
       </c>
       <c r="C7">
-        <v>0.0285920457008907</v>
+        <v>0.03567623749441551</v>
       </c>
       <c r="D7">
-        <v>-0.1086794560757782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09510819859331594</v>
+      </c>
+      <c r="E7">
+        <v>-0.007459146359499123</v>
+      </c>
+      <c r="F7">
+        <v>0.02369904732611804</v>
+      </c>
+      <c r="G7">
+        <v>-0.01953561537924847</v>
+      </c>
+      <c r="H7">
+        <v>0.06956170920818702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01198627631679417</v>
+        <v>0.00871530919829119</v>
       </c>
       <c r="C8">
-        <v>0.03470936128858796</v>
+        <v>0.0378600940060972</v>
       </c>
       <c r="D8">
-        <v>-0.0632979074676548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07414111387630301</v>
+      </c>
+      <c r="E8">
+        <v>0.02189248462042651</v>
+      </c>
+      <c r="F8">
+        <v>0.06465761328578581</v>
+      </c>
+      <c r="G8">
+        <v>-0.05099719413721893</v>
+      </c>
+      <c r="H8">
+        <v>0.04918392770980026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04049935044984008</v>
+        <v>0.03750297384367655</v>
       </c>
       <c r="C9">
-        <v>0.05618571464025598</v>
+        <v>0.06731990447282667</v>
       </c>
       <c r="D9">
-        <v>-0.1137041845656687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1231657136777762</v>
+      </c>
+      <c r="E9">
+        <v>0.03904383850702207</v>
+      </c>
+      <c r="F9">
+        <v>0.02920351131867544</v>
+      </c>
+      <c r="G9">
+        <v>0.02510584952745817</v>
+      </c>
+      <c r="H9">
+        <v>0.0140642487111856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1200000407552676</v>
+        <v>0.1604806103476216</v>
       </c>
       <c r="C10">
-        <v>-0.1893418495607711</v>
+        <v>-0.182887878892767</v>
       </c>
       <c r="D10">
-        <v>-0.004173444657161719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008530088976298813</v>
+      </c>
+      <c r="E10">
+        <v>0.037225851846795</v>
+      </c>
+      <c r="F10">
+        <v>0.03980774233258662</v>
+      </c>
+      <c r="G10">
+        <v>0.008336162706511979</v>
+      </c>
+      <c r="H10">
+        <v>-0.04464548988596986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03072070516699812</v>
+        <v>0.02731112010949881</v>
       </c>
       <c r="C11">
-        <v>0.04323722536239145</v>
+        <v>0.04738017707661755</v>
       </c>
       <c r="D11">
-        <v>-0.06368572234218943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05945022204735894</v>
+      </c>
+      <c r="E11">
+        <v>-0.01488183174726259</v>
+      </c>
+      <c r="F11">
+        <v>-0.003690298428888707</v>
+      </c>
+      <c r="G11">
+        <v>-0.003583599178150027</v>
+      </c>
+      <c r="H11">
+        <v>0.03279780177014872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03766342357729222</v>
+        <v>0.03224012487077103</v>
       </c>
       <c r="C12">
-        <v>0.04517404675915011</v>
+        <v>0.04981506165959911</v>
       </c>
       <c r="D12">
-        <v>-0.06319338352086061</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05569565897606959</v>
+      </c>
+      <c r="E12">
+        <v>-0.005736678815375528</v>
+      </c>
+      <c r="F12">
+        <v>-0.01017822968395672</v>
+      </c>
+      <c r="G12">
+        <v>-0.008375633662582435</v>
+      </c>
+      <c r="H12">
+        <v>0.03765619091199639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01363720141714399</v>
+        <v>0.01708866802652529</v>
       </c>
       <c r="C13">
-        <v>0.03481709262671749</v>
+        <v>0.04175555040703734</v>
       </c>
       <c r="D13">
-        <v>-0.1404729618170676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1536759101806808</v>
+      </c>
+      <c r="E13">
+        <v>0.01055988460960142</v>
+      </c>
+      <c r="F13">
+        <v>0.06217076163784632</v>
+      </c>
+      <c r="G13">
+        <v>-0.0431464624547541</v>
+      </c>
+      <c r="H13">
+        <v>0.05739350733732082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007000896748441457</v>
+        <v>0.008901404948690503</v>
       </c>
       <c r="C14">
-        <v>0.02287302708533321</v>
+        <v>0.02522540187191035</v>
       </c>
       <c r="D14">
-        <v>-0.09638341813742141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09737386748647285</v>
+      </c>
+      <c r="E14">
+        <v>0.01480786467282023</v>
+      </c>
+      <c r="F14">
+        <v>0.01857028192291375</v>
+      </c>
+      <c r="G14">
+        <v>-0.02452871752520033</v>
+      </c>
+      <c r="H14">
+        <v>0.0905364545511874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.00261358619080726</v>
+        <v>0.001595014119310721</v>
       </c>
       <c r="C15">
-        <v>0.005214465487475238</v>
+        <v>0.01250189798176568</v>
       </c>
       <c r="D15">
-        <v>-0.008228641196779915</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03727474616972701</v>
+      </c>
+      <c r="E15">
+        <v>0.006728876079931362</v>
+      </c>
+      <c r="F15">
+        <v>0.0055125820930212</v>
+      </c>
+      <c r="G15">
+        <v>-0.007832751400298439</v>
+      </c>
+      <c r="H15">
+        <v>0.02010812555437679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03102008425409697</v>
+        <v>0.02773736276621797</v>
       </c>
       <c r="C16">
-        <v>0.04487110048764227</v>
+        <v>0.0476134315809072</v>
       </c>
       <c r="D16">
-        <v>-0.07067139652409146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06284099769234729</v>
+      </c>
+      <c r="E16">
+        <v>0.001436845859344566</v>
+      </c>
+      <c r="F16">
+        <v>0.002042465333218592</v>
+      </c>
+      <c r="G16">
+        <v>-0.006674181063319492</v>
+      </c>
+      <c r="H16">
+        <v>0.04981772005380438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01138598170732638</v>
+        <v>0.008055742026542643</v>
       </c>
       <c r="C19">
-        <v>0.03256997250232244</v>
+        <v>0.02814053481928393</v>
       </c>
       <c r="D19">
-        <v>-0.152280860021401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1148770707371232</v>
+      </c>
+      <c r="E19">
+        <v>0.0485403623413115</v>
+      </c>
+      <c r="F19">
+        <v>0.005276920073330896</v>
+      </c>
+      <c r="G19">
+        <v>-0.03512182950622614</v>
+      </c>
+      <c r="H19">
+        <v>0.05169924795010214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01423313173221255</v>
+        <v>0.01536835309848279</v>
       </c>
       <c r="C20">
-        <v>0.03190848022610181</v>
+        <v>0.03556683903990262</v>
       </c>
       <c r="D20">
-        <v>-0.09597388822067529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1066282396054745</v>
+      </c>
+      <c r="E20">
+        <v>0.03790390181089816</v>
+      </c>
+      <c r="F20">
+        <v>0.02107022470524303</v>
+      </c>
+      <c r="G20">
+        <v>-0.005834070412034332</v>
+      </c>
+      <c r="H20">
+        <v>0.05342270959629422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0107557959064894</v>
+        <v>0.009893743718596271</v>
       </c>
       <c r="C21">
-        <v>0.0350904478832375</v>
+        <v>0.03969302065503072</v>
       </c>
       <c r="D21">
-        <v>-0.1463519284301917</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1435542696064442</v>
+      </c>
+      <c r="E21">
+        <v>0.0665478426572374</v>
+      </c>
+      <c r="F21">
+        <v>0.04819397344226727</v>
+      </c>
+      <c r="G21">
+        <v>-0.01871701535735301</v>
+      </c>
+      <c r="H21">
+        <v>0.0817609425273345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0009076322318993083</v>
+        <v>0.007000534388873802</v>
       </c>
       <c r="C22">
-        <v>0.04793852377251203</v>
+        <v>0.04423303471846904</v>
       </c>
       <c r="D22">
-        <v>-0.1115092010289512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1656153956069088</v>
+      </c>
+      <c r="E22">
+        <v>0.006668407228833972</v>
+      </c>
+      <c r="F22">
+        <v>0.1137099255163779</v>
+      </c>
+      <c r="G22">
+        <v>-0.1116187343101192</v>
+      </c>
+      <c r="H22">
+        <v>-0.02513369117944992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0007492737238345902</v>
+        <v>0.007142642430842084</v>
       </c>
       <c r="C23">
-        <v>0.04823866865317887</v>
+        <v>0.04472038091497514</v>
       </c>
       <c r="D23">
-        <v>-0.1110248964034469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1649359856047795</v>
+      </c>
+      <c r="E23">
+        <v>0.007089665460946818</v>
+      </c>
+      <c r="F23">
+        <v>0.1139073522053364</v>
+      </c>
+      <c r="G23">
+        <v>-0.1107012947347071</v>
+      </c>
+      <c r="H23">
+        <v>-0.02561460217140044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03531546194689153</v>
+        <v>0.02949132495699347</v>
       </c>
       <c r="C24">
-        <v>0.05682398641794353</v>
+        <v>0.06002510401356113</v>
       </c>
       <c r="D24">
-        <v>-0.07030136267057767</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06411418586721075</v>
+      </c>
+      <c r="E24">
+        <v>0.0004250159094623574</v>
+      </c>
+      <c r="F24">
+        <v>-0.0002957768623015907</v>
+      </c>
+      <c r="G24">
+        <v>0.003438068510471747</v>
+      </c>
+      <c r="H24">
+        <v>0.05864708890435602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03846263110065479</v>
+        <v>0.03301929680555066</v>
       </c>
       <c r="C25">
-        <v>0.05338370289667211</v>
+        <v>0.05659360642615546</v>
       </c>
       <c r="D25">
-        <v>-0.06829101516479534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06223876811848104</v>
+      </c>
+      <c r="E25">
+        <v>0.004554657154940871</v>
+      </c>
+      <c r="F25">
+        <v>0.001990196047199646</v>
+      </c>
+      <c r="G25">
+        <v>-0.005729897666198241</v>
+      </c>
+      <c r="H25">
+        <v>0.02850166928243194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01542401425189863</v>
+        <v>0.01557060318294514</v>
       </c>
       <c r="C26">
-        <v>0.01176056702725571</v>
+        <v>0.01952235180798929</v>
       </c>
       <c r="D26">
-        <v>-0.06259017227900851</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06587360951998884</v>
+      </c>
+      <c r="E26">
+        <v>0.01402454820034381</v>
+      </c>
+      <c r="F26">
+        <v>0.02302553521609036</v>
+      </c>
+      <c r="G26">
+        <v>-0.01253854910805819</v>
+      </c>
+      <c r="H26">
+        <v>0.05729815225701993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1767137141112847</v>
+        <v>0.232076788300941</v>
       </c>
       <c r="C28">
-        <v>-0.2612948737969485</v>
+        <v>-0.2467754482500342</v>
       </c>
       <c r="D28">
-        <v>0.004538083863992559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.00284824430430357</v>
+      </c>
+      <c r="E28">
+        <v>0.06678406572608588</v>
+      </c>
+      <c r="F28">
+        <v>0.03289488980359866</v>
+      </c>
+      <c r="G28">
+        <v>0.0363310652605594</v>
+      </c>
+      <c r="H28">
+        <v>-0.06384751272858231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003309151399562391</v>
+        <v>0.005937528071159178</v>
       </c>
       <c r="C29">
-        <v>0.02144215277935547</v>
+        <v>0.02432430994125066</v>
       </c>
       <c r="D29">
-        <v>-0.08591670445247043</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.09414891584131894</v>
+      </c>
+      <c r="E29">
+        <v>0.00401705860617226</v>
+      </c>
+      <c r="F29">
+        <v>0.03683583763843374</v>
+      </c>
+      <c r="G29">
+        <v>-0.01623152069535818</v>
+      </c>
+      <c r="H29">
+        <v>0.08811685349245349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03286538585325452</v>
+        <v>0.03619827112222034</v>
       </c>
       <c r="C30">
-        <v>0.05888134190790226</v>
+        <v>0.06762571851599668</v>
       </c>
       <c r="D30">
-        <v>-0.1625540207481284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1706808089312455</v>
+      </c>
+      <c r="E30">
+        <v>0.008469387423797482</v>
+      </c>
+      <c r="F30">
+        <v>0.03703150555807006</v>
+      </c>
+      <c r="G30">
+        <v>0.004066066062831568</v>
+      </c>
+      <c r="H30">
+        <v>0.06675878837605359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06240847154984207</v>
+        <v>0.05074576041146032</v>
       </c>
       <c r="C31">
-        <v>0.07070369093602655</v>
+        <v>0.08028258056588941</v>
       </c>
       <c r="D31">
-        <v>-0.064251575047512</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05132127381418503</v>
+      </c>
+      <c r="E31">
+        <v>0.01690904982332454</v>
+      </c>
+      <c r="F31">
+        <v>0.03727620765264088</v>
+      </c>
+      <c r="G31">
+        <v>-0.01390793378494181</v>
+      </c>
+      <c r="H31">
+        <v>0.02303611080174978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01954149452720886</v>
+        <v>0.02140065066998422</v>
       </c>
       <c r="C32">
-        <v>0.02127458387003791</v>
+        <v>0.02390134076038771</v>
       </c>
       <c r="D32">
-        <v>-0.09431749436558901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1168319427716416</v>
+      </c>
+      <c r="E32">
+        <v>0.04242342825863123</v>
+      </c>
+      <c r="F32">
+        <v>0.05425703753296272</v>
+      </c>
+      <c r="G32">
+        <v>-0.02230041024610351</v>
+      </c>
+      <c r="H32">
+        <v>0.03466083945281706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02455982602126556</v>
+        <v>0.0248464189548363</v>
       </c>
       <c r="C33">
-        <v>0.04045802941164842</v>
+        <v>0.04710749372182313</v>
       </c>
       <c r="D33">
-        <v>-0.1453112159496072</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1363724133306155</v>
+      </c>
+      <c r="E33">
+        <v>0.02716992948262631</v>
+      </c>
+      <c r="F33">
+        <v>0.0299054586487199</v>
+      </c>
+      <c r="G33">
+        <v>-0.01701338481645116</v>
+      </c>
+      <c r="H33">
+        <v>0.05951482123184042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03016356851913904</v>
+        <v>0.02359948747929003</v>
       </c>
       <c r="C34">
-        <v>0.06633488028674998</v>
+        <v>0.06366131109592049</v>
       </c>
       <c r="D34">
-        <v>-0.07007892723400153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05558907207362314</v>
+      </c>
+      <c r="E34">
+        <v>-0.01462544931860814</v>
+      </c>
+      <c r="F34">
+        <v>-0.01290137701840467</v>
+      </c>
+      <c r="G34">
+        <v>-0.009508106781360147</v>
+      </c>
+      <c r="H34">
+        <v>0.05108127183667837</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0009126094512180072</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001364415942579178</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.008121804364038957</v>
+      </c>
+      <c r="E35">
+        <v>-0.0009115448527543628</v>
+      </c>
+      <c r="F35">
+        <v>0.001231514515038113</v>
+      </c>
+      <c r="G35">
+        <v>-0.001489720841126748</v>
+      </c>
+      <c r="H35">
+        <v>0.003678637626658693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02002720275817111</v>
+        <v>0.02013847993949028</v>
       </c>
       <c r="C36">
-        <v>0.007487964322481019</v>
+        <v>0.01695869413424394</v>
       </c>
       <c r="D36">
-        <v>-0.08728293543639115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08032023086522661</v>
+      </c>
+      <c r="E36">
+        <v>0.01809661059259981</v>
+      </c>
+      <c r="F36">
+        <v>0.01713948015554807</v>
+      </c>
+      <c r="G36">
+        <v>0.002950731400478187</v>
+      </c>
+      <c r="H36">
+        <v>0.04675457557372074</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01904453005019388</v>
+        <v>0.02211877223581832</v>
       </c>
       <c r="C38">
-        <v>0.0150968917184537</v>
+        <v>0.01770927916462031</v>
       </c>
       <c r="D38">
-        <v>-0.07580088720298228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.07303446142657297</v>
+      </c>
+      <c r="E38">
+        <v>0.02816603292290601</v>
+      </c>
+      <c r="F38">
+        <v>-0.01563295676603945</v>
+      </c>
+      <c r="G38">
+        <v>-0.02404844722360862</v>
+      </c>
+      <c r="H38">
+        <v>0.03994902209962357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03796164370068091</v>
+        <v>0.03318329599484717</v>
       </c>
       <c r="C39">
-        <v>0.06015148696265849</v>
+        <v>0.07086428566083512</v>
       </c>
       <c r="D39">
-        <v>-0.09905699656978838</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1045924977961138</v>
+      </c>
+      <c r="E39">
+        <v>-0.005024220896585719</v>
+      </c>
+      <c r="F39">
+        <v>-0.01427870677973667</v>
+      </c>
+      <c r="G39">
+        <v>0.007253557074408862</v>
+      </c>
+      <c r="H39">
+        <v>0.09341891148979886</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01587826570480813</v>
+        <v>0.01347196678381203</v>
       </c>
       <c r="C40">
-        <v>0.04313519323344386</v>
+        <v>0.03762998518227997</v>
       </c>
       <c r="D40">
-        <v>-0.08615354800395102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08757380367594639</v>
+      </c>
+      <c r="E40">
+        <v>0.0286096163284174</v>
+      </c>
+      <c r="F40">
+        <v>0.09300982704478465</v>
+      </c>
+      <c r="G40">
+        <v>-0.150302309530153</v>
+      </c>
+      <c r="H40">
+        <v>0.1415218121324772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0276951119697665</v>
+        <v>0.02594221621173868</v>
       </c>
       <c r="C41">
-        <v>0.00329156841903114</v>
+        <v>0.01088844968564327</v>
       </c>
       <c r="D41">
-        <v>-0.07338008066657825</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05261070508474622</v>
+      </c>
+      <c r="E41">
+        <v>0.04634896793812162</v>
+      </c>
+      <c r="F41">
+        <v>0.01145394592350282</v>
+      </c>
+      <c r="G41">
+        <v>-0.02529310698918282</v>
+      </c>
+      <c r="H41">
+        <v>0.04696649539392522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02812137749992436</v>
+        <v>0.02414956174054928</v>
       </c>
       <c r="C43">
-        <v>0.01300234588030149</v>
+        <v>0.01881945075828101</v>
       </c>
       <c r="D43">
-        <v>-0.112210603061652</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08328162730212793</v>
+      </c>
+      <c r="E43">
+        <v>0.02215100735433573</v>
+      </c>
+      <c r="F43">
+        <v>0.002872513496775579</v>
+      </c>
+      <c r="G43">
+        <v>-0.02322417791341099</v>
+      </c>
+      <c r="H43">
+        <v>0.0577183720043534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01659860048255117</v>
+        <v>0.01851418558157537</v>
       </c>
       <c r="C44">
-        <v>0.04092023376551707</v>
+        <v>0.04083691440256373</v>
       </c>
       <c r="D44">
-        <v>-0.09365444584398051</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1070817934452282</v>
+      </c>
+      <c r="E44">
+        <v>0.02843763642184047</v>
+      </c>
+      <c r="F44">
+        <v>0.01789123440849904</v>
+      </c>
+      <c r="G44">
+        <v>-0.01552057936238032</v>
+      </c>
+      <c r="H44">
+        <v>0.04474248482544374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01569575524909256</v>
+        <v>0.01264455134593128</v>
       </c>
       <c r="C46">
-        <v>0.02495562384102175</v>
+        <v>0.03268814491961766</v>
       </c>
       <c r="D46">
-        <v>-0.09316298162905358</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08990357096711396</v>
+      </c>
+      <c r="E46">
+        <v>0.01738514091319207</v>
+      </c>
+      <c r="F46">
+        <v>0.01461819260964137</v>
+      </c>
+      <c r="G46">
+        <v>-0.005554859269177245</v>
+      </c>
+      <c r="H46">
+        <v>0.08925901369893893</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09430616867845233</v>
+        <v>0.07905481013824449</v>
       </c>
       <c r="C47">
-        <v>0.08151145679611042</v>
+        <v>0.0969084176592459</v>
       </c>
       <c r="D47">
-        <v>-0.03488910500205079</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03009971582470622</v>
+      </c>
+      <c r="E47">
+        <v>0.02936896114613479</v>
+      </c>
+      <c r="F47">
+        <v>0.02296297987402848</v>
+      </c>
+      <c r="G47">
+        <v>-0.01284196236330327</v>
+      </c>
+      <c r="H47">
+        <v>-0.04426779103470014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01361700919822275</v>
+        <v>0.01501239969182379</v>
       </c>
       <c r="C48">
-        <v>0.01778495939467084</v>
+        <v>0.02202880921817768</v>
       </c>
       <c r="D48">
-        <v>-0.07557499966050979</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07570530387169214</v>
+      </c>
+      <c r="E48">
+        <v>0.04955148968105039</v>
+      </c>
+      <c r="F48">
+        <v>0.02148597055991041</v>
+      </c>
+      <c r="G48">
+        <v>2.839767253871076e-05</v>
+      </c>
+      <c r="H48">
+        <v>0.0637547908209941</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05999432345182879</v>
+        <v>0.04883956587281574</v>
       </c>
       <c r="C50">
-        <v>0.05934612129978064</v>
+        <v>0.0708806436609133</v>
       </c>
       <c r="D50">
-        <v>-0.05670422718574802</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0498641192092775</v>
+      </c>
+      <c r="E50">
+        <v>0.02103640882747368</v>
+      </c>
+      <c r="F50">
+        <v>0.03620369345304986</v>
+      </c>
+      <c r="G50">
+        <v>-0.04605666023988417</v>
+      </c>
+      <c r="H50">
+        <v>0.01882044375095793</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01434726458220186</v>
+        <v>0.01312155366449639</v>
       </c>
       <c r="C51">
-        <v>0.01613107986393786</v>
+        <v>0.0227537843508509</v>
       </c>
       <c r="D51">
-        <v>-0.0862018558444467</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09175666823492383</v>
+      </c>
+      <c r="E51">
+        <v>-0.01245083532816438</v>
+      </c>
+      <c r="F51">
+        <v>0.00832701634517957</v>
+      </c>
+      <c r="G51">
+        <v>-0.00412114707220722</v>
+      </c>
+      <c r="H51">
+        <v>0.07366363581209898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09182302568035958</v>
+        <v>0.08502079880768688</v>
       </c>
       <c r="C53">
-        <v>0.09251758119430445</v>
+        <v>0.10538608843721</v>
       </c>
       <c r="D53">
-        <v>-0.0131709046326361</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01738335980236329</v>
+      </c>
+      <c r="E53">
+        <v>0.09713551040555507</v>
+      </c>
+      <c r="F53">
+        <v>0.08994101851815384</v>
+      </c>
+      <c r="G53">
+        <v>0.040127358974954</v>
+      </c>
+      <c r="H53">
+        <v>-0.01373548912171906</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02636137196356808</v>
+        <v>0.02524225179336015</v>
       </c>
       <c r="C54">
-        <v>0.02919764479710585</v>
+        <v>0.03575795255318549</v>
       </c>
       <c r="D54">
-        <v>-0.09993656711615996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0903071353747182</v>
+      </c>
+      <c r="E54">
+        <v>0.02349975003168655</v>
+      </c>
+      <c r="F54">
+        <v>0.005834199217369238</v>
+      </c>
+      <c r="G54">
+        <v>-0.04322653450727782</v>
+      </c>
+      <c r="H54">
+        <v>0.07756329031700342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09049252797164901</v>
+        <v>0.08069245423926535</v>
       </c>
       <c r="C55">
-        <v>0.07092390488329028</v>
+        <v>0.08597259147030814</v>
       </c>
       <c r="D55">
-        <v>0.008589589963450729</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.004711664634610777</v>
+      </c>
+      <c r="E55">
+        <v>0.04531919171986998</v>
+      </c>
+      <c r="F55">
+        <v>0.06956903794943629</v>
+      </c>
+      <c r="G55">
+        <v>0.006543026143076371</v>
+      </c>
+      <c r="H55">
+        <v>-0.0104480488011656</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1362468069813929</v>
+        <v>0.1199216171888059</v>
       </c>
       <c r="C56">
-        <v>0.1078952305593572</v>
+        <v>0.1346871462908761</v>
       </c>
       <c r="D56">
-        <v>0.0145801081493948</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01466822310974076</v>
+      </c>
+      <c r="E56">
+        <v>0.05770016300453525</v>
+      </c>
+      <c r="F56">
+        <v>0.0530255687979565</v>
+      </c>
+      <c r="G56">
+        <v>-0.0074839520970522</v>
+      </c>
+      <c r="H56">
+        <v>-0.03414372577395508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.006863497996066642</v>
+        <v>0.005159274913945441</v>
       </c>
       <c r="C58">
-        <v>0.02270802290657492</v>
+        <v>0.03713782310752151</v>
       </c>
       <c r="D58">
-        <v>-0.2770525120273775</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3208553468438833</v>
+      </c>
+      <c r="E58">
+        <v>0.087079593561411</v>
+      </c>
+      <c r="F58">
+        <v>0.1334844822635477</v>
+      </c>
+      <c r="G58">
+        <v>-0.09343033066869663</v>
+      </c>
+      <c r="H58">
+        <v>-0.0455255701350353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1483778938011412</v>
+        <v>0.1879914153454104</v>
       </c>
       <c r="C59">
-        <v>-0.1749898328464144</v>
+        <v>-0.1570487027142388</v>
       </c>
       <c r="D59">
-        <v>-0.04695348995061948</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06029084003619014</v>
+      </c>
+      <c r="E59">
+        <v>0.03922678993962581</v>
+      </c>
+      <c r="F59">
+        <v>-0.02611198846336079</v>
+      </c>
+      <c r="G59">
+        <v>0.001826239061841974</v>
+      </c>
+      <c r="H59">
+        <v>-0.02275111763103139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2319237423441285</v>
+        <v>0.2188349575756285</v>
       </c>
       <c r="C60">
-        <v>0.0662416590516321</v>
+        <v>0.1060817209573436</v>
       </c>
       <c r="D60">
-        <v>-0.1681830166465389</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1233953745420528</v>
+      </c>
+      <c r="E60">
+        <v>-0.3143013489531183</v>
+      </c>
+      <c r="F60">
+        <v>-0.08700001456853347</v>
+      </c>
+      <c r="G60">
+        <v>0.08999966147437516</v>
+      </c>
+      <c r="H60">
+        <v>-0.1856017038948456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04401472401965495</v>
+        <v>0.03826644166164089</v>
       </c>
       <c r="C61">
-        <v>0.05430269488167327</v>
+        <v>0.0643858355615563</v>
       </c>
       <c r="D61">
-        <v>-0.1081692936028936</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09452582404520743</v>
+      </c>
+      <c r="E61">
+        <v>-0.00964095091440792</v>
+      </c>
+      <c r="F61">
+        <v>-0.01175682559753782</v>
+      </c>
+      <c r="G61">
+        <v>0.001521052580767687</v>
+      </c>
+      <c r="H61">
+        <v>0.05174142069842609</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01678708237957906</v>
+        <v>0.0156785918479184</v>
       </c>
       <c r="C63">
-        <v>0.021845932085039</v>
+        <v>0.03130641889338433</v>
       </c>
       <c r="D63">
-        <v>-0.08357230557348132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07743303064720659</v>
+      </c>
+      <c r="E63">
+        <v>0.003555892007499901</v>
+      </c>
+      <c r="F63">
+        <v>0.01830257496705051</v>
+      </c>
+      <c r="G63">
+        <v>0.002158075974257554</v>
+      </c>
+      <c r="H63">
+        <v>0.05105126911931598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05917690800705724</v>
+        <v>0.04840069661641008</v>
       </c>
       <c r="C64">
-        <v>0.07432252386860989</v>
+        <v>0.08130511614310415</v>
       </c>
       <c r="D64">
-        <v>-0.05264645605517435</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05302837673327624</v>
+      </c>
+      <c r="E64">
+        <v>0.01411081216372645</v>
+      </c>
+      <c r="F64">
+        <v>0.002017846404507905</v>
+      </c>
+      <c r="G64">
+        <v>0.07114525881666856</v>
+      </c>
+      <c r="H64">
+        <v>0.05948776034455294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03888646996878805</v>
+        <v>0.03795200637827116</v>
       </c>
       <c r="C65">
-        <v>0.01815953355723326</v>
+        <v>0.03106553909770226</v>
       </c>
       <c r="D65">
-        <v>-0.1240751828933446</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1139989852025094</v>
+      </c>
+      <c r="E65">
+        <v>-0.008505965563658582</v>
+      </c>
+      <c r="F65">
+        <v>0.0162046597568752</v>
+      </c>
+      <c r="G65">
+        <v>-0.007356012013725844</v>
+      </c>
+      <c r="H65">
+        <v>0.02597041322305271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04047777801587311</v>
+        <v>0.03581670006919298</v>
       </c>
       <c r="C66">
-        <v>0.06633430588942241</v>
+        <v>0.07995397785330438</v>
       </c>
       <c r="D66">
-        <v>-0.1158758838820819</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1295365554641759</v>
+      </c>
+      <c r="E66">
+        <v>-0.0008733354589623493</v>
+      </c>
+      <c r="F66">
+        <v>-0.004437187245312697</v>
+      </c>
+      <c r="G66">
+        <v>-0.01058633893848824</v>
+      </c>
+      <c r="H66">
+        <v>0.05646904671396309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03956197461899543</v>
+        <v>0.03865667685144211</v>
       </c>
       <c r="C67">
-        <v>0.02099095901469769</v>
+        <v>0.0257534131844619</v>
       </c>
       <c r="D67">
-        <v>-0.04136836854126808</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03126446983499938</v>
+      </c>
+      <c r="E67">
+        <v>0.007011654825745168</v>
+      </c>
+      <c r="F67">
+        <v>-0.02462685164778098</v>
+      </c>
+      <c r="G67">
+        <v>-0.01751513275904912</v>
+      </c>
+      <c r="H67">
+        <v>0.04128403977420383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1726818714234842</v>
+        <v>0.2098164728884969</v>
       </c>
       <c r="C68">
-        <v>-0.213900548901902</v>
+        <v>-0.1851500224582408</v>
       </c>
       <c r="D68">
-        <v>-0.02602395971931577</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02790092875892684</v>
+      </c>
+      <c r="E68">
+        <v>0.0181610259843287</v>
+      </c>
+      <c r="F68">
+        <v>0.0407082657048911</v>
+      </c>
+      <c r="G68">
+        <v>-0.01847764395891323</v>
+      </c>
+      <c r="H68">
+        <v>-0.006375333668388253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08543315939577219</v>
+        <v>0.0695117066666789</v>
       </c>
       <c r="C69">
-        <v>0.0976094494571952</v>
+        <v>0.103783530557708</v>
       </c>
       <c r="D69">
-        <v>-0.0660768284370466</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04647582800010847</v>
+      </c>
+      <c r="E69">
+        <v>0.01754720863115044</v>
+      </c>
+      <c r="F69">
+        <v>0.008531158343627313</v>
+      </c>
+      <c r="G69">
+        <v>-0.005582029253561188</v>
+      </c>
+      <c r="H69">
+        <v>-0.01167096105254596</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1565549151735065</v>
+        <v>0.1960984919435464</v>
       </c>
       <c r="C71">
-        <v>-0.2157471425317799</v>
+        <v>-0.192566575185108</v>
       </c>
       <c r="D71">
-        <v>-0.02809314968429721</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03548968051752206</v>
+      </c>
+      <c r="E71">
+        <v>0.04007711434872017</v>
+      </c>
+      <c r="F71">
+        <v>0.06216761337297529</v>
+      </c>
+      <c r="G71">
+        <v>-0.03733267080917643</v>
+      </c>
+      <c r="H71">
+        <v>-0.01322842218288928</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1067109924162827</v>
+        <v>0.09843418375261877</v>
       </c>
       <c r="C72">
-        <v>0.05580590039240883</v>
+        <v>0.08090379690433495</v>
       </c>
       <c r="D72">
-        <v>-0.09055902663413253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09289196433471952</v>
+      </c>
+      <c r="E72">
+        <v>-0.06003930041665091</v>
+      </c>
+      <c r="F72">
+        <v>0.03846753850436724</v>
+      </c>
+      <c r="G72">
+        <v>0.02382352538962204</v>
+      </c>
+      <c r="H72">
+        <v>0.02812027806624114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2373073584342269</v>
+        <v>0.2164481382996885</v>
       </c>
       <c r="C73">
-        <v>0.04091828883950007</v>
+        <v>0.09924385635088039</v>
       </c>
       <c r="D73">
-        <v>-0.2622326968766981</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1518923136240448</v>
+      </c>
+      <c r="E73">
+        <v>-0.5993550584249128</v>
+      </c>
+      <c r="F73">
+        <v>-0.1526074914657566</v>
+      </c>
+      <c r="G73">
+        <v>0.09336216228844453</v>
+      </c>
+      <c r="H73">
+        <v>-0.2260921912967045</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1049978958437211</v>
+        <v>0.09105948678152315</v>
       </c>
       <c r="C74">
-        <v>0.07506771730619509</v>
+        <v>0.09579273176527635</v>
       </c>
       <c r="D74">
-        <v>0.0139673449115337</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01590816286685726</v>
+      </c>
+      <c r="E74">
+        <v>0.04401752896031372</v>
+      </c>
+      <c r="F74">
+        <v>0.07939785169937048</v>
+      </c>
+      <c r="G74">
+        <v>0.03731152533028811</v>
+      </c>
+      <c r="H74">
+        <v>-0.04292047310114231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2468859822670486</v>
+        <v>0.2153906902417943</v>
       </c>
       <c r="C75">
-        <v>0.1359048886735726</v>
+        <v>0.1774710955017768</v>
       </c>
       <c r="D75">
-        <v>0.08199913643132659</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1014588429341705</v>
+      </c>
+      <c r="E75">
+        <v>0.1159395089851474</v>
+      </c>
+      <c r="F75">
+        <v>0.03714479424209882</v>
+      </c>
+      <c r="G75">
+        <v>0.00315082343055745</v>
+      </c>
+      <c r="H75">
+        <v>-0.06625955556104132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1399213932076289</v>
+        <v>0.1208577019815252</v>
       </c>
       <c r="C76">
-        <v>0.09748931340641286</v>
+        <v>0.1211278268942146</v>
       </c>
       <c r="D76">
-        <v>0.006604305030968589</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01312935975098851</v>
+      </c>
+      <c r="E76">
+        <v>0.09800103525725087</v>
+      </c>
+      <c r="F76">
+        <v>0.04041114359496339</v>
+      </c>
+      <c r="G76">
+        <v>0.02307741830322215</v>
+      </c>
+      <c r="H76">
+        <v>0.02931682819960052</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0472943281468154</v>
+        <v>0.05138342620534594</v>
       </c>
       <c r="C77">
-        <v>0.06597138018996003</v>
+        <v>0.07762279843116175</v>
       </c>
       <c r="D77">
-        <v>-0.04498272017764542</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1355870357679865</v>
+      </c>
+      <c r="E77">
+        <v>0.4357585337332135</v>
+      </c>
+      <c r="F77">
+        <v>-0.3704894091604986</v>
+      </c>
+      <c r="G77">
+        <v>-0.3088731532800634</v>
+      </c>
+      <c r="H77">
+        <v>-0.6509253372248143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04319683139820144</v>
+        <v>0.04456048574879486</v>
       </c>
       <c r="C78">
-        <v>0.06053098180547902</v>
+        <v>0.06916397150863901</v>
       </c>
       <c r="D78">
-        <v>-0.1270397228168652</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1349375384921961</v>
+      </c>
+      <c r="E78">
+        <v>0.002326339421307849</v>
+      </c>
+      <c r="F78">
+        <v>0.03496384231497905</v>
+      </c>
+      <c r="G78">
+        <v>-0.008234548056374226</v>
+      </c>
+      <c r="H78">
+        <v>-0.01650063291648415</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.04660089596298548</v>
+        <v>0.04889089738065446</v>
       </c>
       <c r="C79">
-        <v>0.09369621872306313</v>
+        <v>0.1036507763696064</v>
       </c>
       <c r="D79">
-        <v>0.1014585531871518</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03150218165116007</v>
+      </c>
+      <c r="E79">
+        <v>0.2307238729366363</v>
+      </c>
+      <c r="F79">
+        <v>0.4220819986377985</v>
+      </c>
+      <c r="G79">
+        <v>0.6728282376347567</v>
+      </c>
+      <c r="H79">
+        <v>-0.2780603756412734</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02455388615781494</v>
+        <v>0.02241674026258455</v>
       </c>
       <c r="C80">
-        <v>0.04734820172305437</v>
+        <v>0.04650913581500456</v>
       </c>
       <c r="D80">
-        <v>-0.02177209059864945</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01907620997400141</v>
+      </c>
+      <c r="E80">
+        <v>0.01313623035019472</v>
+      </c>
+      <c r="F80">
+        <v>0.01141716925819207</v>
+      </c>
+      <c r="G80">
+        <v>-0.01031800640189102</v>
+      </c>
+      <c r="H80">
+        <v>0.07273468948339451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1353006288891582</v>
+        <v>0.1126467934789228</v>
       </c>
       <c r="C81">
-        <v>0.10697461017334</v>
+        <v>0.127538166370487</v>
       </c>
       <c r="D81">
-        <v>0.07751004297047871</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07848057004026375</v>
+      </c>
+      <c r="E81">
+        <v>0.1105965363109327</v>
+      </c>
+      <c r="F81">
+        <v>0.06489949472168562</v>
+      </c>
+      <c r="G81">
+        <v>-0.0004282886825262425</v>
+      </c>
+      <c r="H81">
+        <v>0.01133382424307617</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3298878453251384</v>
+        <v>0.2629250214622975</v>
       </c>
       <c r="C82">
-        <v>0.2674591231462601</v>
+        <v>0.2904705612489832</v>
       </c>
       <c r="D82">
-        <v>0.2682717275799005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.272941412025287</v>
+      </c>
+      <c r="E82">
+        <v>-0.05612172297286407</v>
+      </c>
+      <c r="F82">
+        <v>-0.09890440163881505</v>
+      </c>
+      <c r="G82">
+        <v>-0.1403847513103753</v>
+      </c>
+      <c r="H82">
+        <v>0.003651172723830139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02914451369790657</v>
+        <v>0.02011919585230764</v>
       </c>
       <c r="C83">
-        <v>0.05650686288959383</v>
+        <v>0.05629790197315081</v>
       </c>
       <c r="D83">
-        <v>-0.04359404555895474</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04602767602061184</v>
+      </c>
+      <c r="E83">
+        <v>0.04203593071721869</v>
+      </c>
+      <c r="F83">
+        <v>-0.07906310004021325</v>
+      </c>
+      <c r="G83">
+        <v>-0.04409975080468487</v>
+      </c>
+      <c r="H83">
+        <v>-0.03679015438103115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000822818016874123</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004988632956483058</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01887429098244895</v>
+      </c>
+      <c r="E84">
+        <v>0.0139711534649406</v>
+      </c>
+      <c r="F84">
+        <v>0.01899922044805939</v>
+      </c>
+      <c r="G84">
+        <v>-0.007413700421525391</v>
+      </c>
+      <c r="H84">
+        <v>0.02134284760222094</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1685293628904457</v>
+        <v>0.144374834481459</v>
       </c>
       <c r="C85">
-        <v>0.1111213608891436</v>
+        <v>0.1436465105572377</v>
       </c>
       <c r="D85">
-        <v>0.03697147793696192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.05696533319241465</v>
+      </c>
+      <c r="E85">
+        <v>0.03526988096974459</v>
+      </c>
+      <c r="F85">
+        <v>0.07463122092589436</v>
+      </c>
+      <c r="G85">
+        <v>0.08556029173730394</v>
+      </c>
+      <c r="H85">
+        <v>-0.005710380746052931</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02276642806163048</v>
+        <v>0.02166471782049127</v>
       </c>
       <c r="C86">
-        <v>0.03767758611852597</v>
+        <v>0.03756250334403993</v>
       </c>
       <c r="D86">
-        <v>-0.1194664368595029</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1175103410265023</v>
+      </c>
+      <c r="E86">
+        <v>0.01404382216782576</v>
+      </c>
+      <c r="F86">
+        <v>-0.01642002591214952</v>
+      </c>
+      <c r="G86">
+        <v>-0.06856470210499442</v>
+      </c>
+      <c r="H86">
+        <v>-0.0459100965694792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02628674636861838</v>
+        <v>0.03202586879234675</v>
       </c>
       <c r="C87">
-        <v>0.02029581030284268</v>
+        <v>0.03093355983782706</v>
       </c>
       <c r="D87">
-        <v>-0.1107107435367648</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1340855096999723</v>
+      </c>
+      <c r="E87">
+        <v>0.04881926642238495</v>
+      </c>
+      <c r="F87">
+        <v>0.0244974478216793</v>
+      </c>
+      <c r="G87">
+        <v>-0.02287324552034983</v>
+      </c>
+      <c r="H87">
+        <v>0.05211216115315757</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07629196781602211</v>
+        <v>0.06405692897101202</v>
       </c>
       <c r="C88">
-        <v>0.04329958504483326</v>
+        <v>0.05895006335640068</v>
       </c>
       <c r="D88">
-        <v>-0.04027906090714784</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01553371398809586</v>
+      </c>
+      <c r="E88">
+        <v>0.003186152299432145</v>
+      </c>
+      <c r="F88">
+        <v>0.0248465306712445</v>
+      </c>
+      <c r="G88">
+        <v>0.0009524148129108111</v>
+      </c>
+      <c r="H88">
+        <v>0.05321836899511813</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2430685815600592</v>
+        <v>0.3005002811502647</v>
       </c>
       <c r="C89">
-        <v>-0.392219187564443</v>
+        <v>-0.3305192340714901</v>
       </c>
       <c r="D89">
-        <v>0.001419350736010189</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.004785791797641929</v>
+      </c>
+      <c r="E89">
+        <v>0.0595598742682577</v>
+      </c>
+      <c r="F89">
+        <v>-0.009492729456269167</v>
+      </c>
+      <c r="G89">
+        <v>0.035714056338834</v>
+      </c>
+      <c r="H89">
+        <v>0.1208887535721314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2120417174962159</v>
+        <v>0.2523284216254471</v>
       </c>
       <c r="C90">
-        <v>-0.2909590328663062</v>
+        <v>-0.2360686814292802</v>
       </c>
       <c r="D90">
-        <v>-0.01338556067097662</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02429687469784058</v>
+      </c>
+      <c r="E90">
+        <v>0.04133957158265425</v>
+      </c>
+      <c r="F90">
+        <v>-0.006856273511713412</v>
+      </c>
+      <c r="G90">
+        <v>-0.05419919399545975</v>
+      </c>
+      <c r="H90">
+        <v>0.03850754461446765</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1729878772761854</v>
+        <v>0.1441022733994834</v>
       </c>
       <c r="C91">
-        <v>0.1502794153199514</v>
+        <v>0.1650093262668058</v>
       </c>
       <c r="D91">
-        <v>0.09300182907267701</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08948437387040296</v>
+      </c>
+      <c r="E91">
+        <v>0.1192329020485231</v>
+      </c>
+      <c r="F91">
+        <v>0.07304850432690142</v>
+      </c>
+      <c r="G91">
+        <v>0.05299783183698743</v>
+      </c>
+      <c r="H91">
+        <v>-0.04710620179721774</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1865850200423571</v>
+        <v>0.2423022184679879</v>
       </c>
       <c r="C92">
-        <v>-0.2761117886034605</v>
+        <v>-0.2580253091153275</v>
       </c>
       <c r="D92">
-        <v>-0.02111678971701416</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03055842273670173</v>
+      </c>
+      <c r="E92">
+        <v>0.0949166024718892</v>
+      </c>
+      <c r="F92">
+        <v>-0.00280921228707769</v>
+      </c>
+      <c r="G92">
+        <v>-0.02371041287931465</v>
+      </c>
+      <c r="H92">
+        <v>0.0467247801586387</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2310172239941242</v>
+        <v>0.2671944192590505</v>
       </c>
       <c r="C93">
-        <v>-0.3046758191566346</v>
+        <v>-0.2477539616197225</v>
       </c>
       <c r="D93">
-        <v>-0.02024421460108266</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0017802376941787</v>
+      </c>
+      <c r="E93">
+        <v>-0.01366600186769132</v>
+      </c>
+      <c r="F93">
+        <v>0.03175663121215269</v>
+      </c>
+      <c r="G93">
+        <v>0.008697011717299172</v>
+      </c>
+      <c r="H93">
+        <v>0.002127989568305418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3630821376330032</v>
+        <v>0.3095282832282565</v>
       </c>
       <c r="C94">
-        <v>0.1949647773991589</v>
+        <v>0.2626029198195697</v>
       </c>
       <c r="D94">
-        <v>0.3974100218311789</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4065804754211991</v>
+      </c>
+      <c r="E94">
+        <v>0.04501878301434476</v>
+      </c>
+      <c r="F94">
+        <v>0.001373953104050787</v>
+      </c>
+      <c r="G94">
+        <v>-0.2207583421476741</v>
+      </c>
+      <c r="H94">
+        <v>0.2712439665781314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06643406469972575</v>
+        <v>0.06303967622066287</v>
       </c>
       <c r="C95">
-        <v>0.06697119881613746</v>
+        <v>0.07401487358791803</v>
       </c>
       <c r="D95">
-        <v>-0.154634436203589</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1286133117346915</v>
+      </c>
+      <c r="E95">
+        <v>0.2256741964850765</v>
+      </c>
+      <c r="F95">
+        <v>-0.7015776370484587</v>
+      </c>
+      <c r="G95">
+        <v>0.4806960434409231</v>
+      </c>
+      <c r="H95">
+        <v>0.3073226445867251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>4.124316756587641e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-4.595080743918419e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-1.410723066986623e-05</v>
+      </c>
+      <c r="E97">
+        <v>0.0001085762550949928</v>
+      </c>
+      <c r="F97">
+        <v>0.0001992911852845119</v>
+      </c>
+      <c r="G97">
+        <v>-0.0001180894779609187</v>
+      </c>
+      <c r="H97">
+        <v>-0.0002240300711495726</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1698084342431382</v>
+        <v>0.1624460268897416</v>
       </c>
       <c r="C98">
-        <v>0.04326737264877932</v>
+        <v>0.07852783626221133</v>
       </c>
       <c r="D98">
-        <v>-0.13996866746086</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1034597058811698</v>
+      </c>
+      <c r="E98">
+        <v>-0.3186630056237482</v>
+      </c>
+      <c r="F98">
+        <v>-0.04365416854930855</v>
+      </c>
+      <c r="G98">
+        <v>0.06583775556637027</v>
+      </c>
+      <c r="H98">
+        <v>-0.1380800311258578</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00336831356536185</v>
+        <v>0.006050644408676647</v>
       </c>
       <c r="C101">
-        <v>0.0208114093419406</v>
+        <v>0.02357558093707853</v>
       </c>
       <c r="D101">
-        <v>-0.08611127438231256</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.09399514892310719</v>
+      </c>
+      <c r="E101">
+        <v>0.004866172710565735</v>
+      </c>
+      <c r="F101">
+        <v>0.03621609599832205</v>
+      </c>
+      <c r="G101">
+        <v>-0.01575627523004516</v>
+      </c>
+      <c r="H101">
+        <v>0.0879996293985737</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.12625386999405</v>
+        <v>0.09920727878276206</v>
       </c>
       <c r="C102">
-        <v>0.12192399975054</v>
+        <v>0.1264990076947359</v>
       </c>
       <c r="D102">
-        <v>0.06206474633434147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.07265218886687105</v>
+      </c>
+      <c r="E102">
+        <v>0.03183310943112896</v>
+      </c>
+      <c r="F102">
+        <v>-0.02663380204700162</v>
+      </c>
+      <c r="G102">
+        <v>-0.003641583860170449</v>
+      </c>
+      <c r="H102">
+        <v>-0.009349856917057387</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
